--- a/doc_KB/dev/import/I081.xlsx
+++ b/doc_KB/dev/import/I081.xlsx
@@ -25,25 +25,25 @@
     <t>RATE</t>
   </si>
   <si>
-    <t>0001</t>
-  </si>
-  <si>
     <t>ABC</t>
   </si>
   <si>
     <t>AAA</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>AGM</t>
   </si>
   <si>
-    <t>11</t>
+    <t>12.6</t>
+  </si>
+  <si>
+    <t>15.11</t>
+  </si>
+  <si>
+    <t>11.456</t>
+  </si>
+  <si>
+    <t>0004</t>
   </si>
 </sst>
 </file>
@@ -389,7 +389,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,10 +416,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -427,10 +427,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -438,13 +438,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
